--- a/calibration/file_name_mapping.xlsx
+++ b/calibration/file_name_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haedo\Documents\Kv_decomp\calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haedongkim/Documents/Kv_decomp/calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A06B4-4E77-4E79-B16D-8BAE7C2AF01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF6CD0-EC4F-BB41-9802-1BE0AF0AB99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="315" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="500" windowWidth="19860" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,12 +241,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,8 +267,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,18 +550,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -562,13 +574,25 @@
         <v>0</v>
       </c>
       <c r="C1">
+        <v>2.1635</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>1.5891999999999999</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -576,13 +600,25 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.7504</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2.5310999999999999</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -590,13 +626,25 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.8914999999999997</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1.3433999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -604,13 +652,25 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>6.9983000000000004</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1.3715999999999999</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -618,13 +678,25 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.9253999999999998</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1.9683999999999999</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -632,13 +704,25 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>5.5574000000000003</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1.7818000000000001</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -646,13 +730,25 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>5.4931000000000001</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1.696</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -660,13 +756,25 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.4447999999999999</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>4.0022000000000002</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -674,13 +782,25 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.8028000000000004</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3.2244000000000002</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -688,13 +808,25 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>5.2488000000000001</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>2.2317</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -702,13 +834,25 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.6746999999999996</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>5.2380000000000004</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -716,13 +860,25 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.2115</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>4.9211999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -730,13 +886,25 @@
         <v>12</v>
       </c>
       <c r="C13">
+        <v>3.8791000000000002</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>6.1848000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -744,13 +912,25 @@
         <v>13</v>
       </c>
       <c r="C14">
+        <v>2.4062999999999999</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>6.3498999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -758,13 +938,25 @@
         <v>14</v>
       </c>
       <c r="C15">
+        <v>3.2305000000000001</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -772,13 +964,25 @@
         <v>15</v>
       </c>
       <c r="C16">
+        <v>3.5196000000000001</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1.3482000000000001</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -786,41 +990,77 @@
         <v>16</v>
       </c>
       <c r="C17">
+        <v>5.1981999999999999</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="G17">
+        <v>1.907</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
+        <v>6.4705000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+      <c r="E18">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G18">
+        <v>2.8218999999999999</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
+        <v>7.9134000000000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>33</v>
+      </c>
+      <c r="E19">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1.5111000000000001</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -828,13 +1068,25 @@
         <v>19</v>
       </c>
       <c r="C20">
+        <v>3.9575</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2.7443</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -842,13 +1094,25 @@
         <v>20</v>
       </c>
       <c r="C21">
+        <v>6.4477000000000002</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>4.2060000000000004</v>
+      </c>
+      <c r="H21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -856,13 +1120,25 @@
         <v>21</v>
       </c>
       <c r="C22">
+        <v>4.1334999999999997</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="H22" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -870,13 +1146,25 @@
         <v>22</v>
       </c>
       <c r="C23">
+        <v>2.4750999999999999</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>2.5127000000000002</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -884,13 +1172,25 @@
         <v>23</v>
       </c>
       <c r="C24">
+        <v>5.0232999999999999</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>5.4494999999999996</v>
+      </c>
+      <c r="H24" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -898,13 +1198,25 @@
         <v>24</v>
       </c>
       <c r="C25">
+        <v>5.2439</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>3.5489000000000002</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -912,13 +1224,25 @@
         <v>25</v>
       </c>
       <c r="C26">
+        <v>4.9104999999999999</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1.7962</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -926,13 +1250,25 @@
         <v>26</v>
       </c>
       <c r="C27">
+        <v>3.1896</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2.8397999999999999</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -940,27 +1276,51 @@
         <v>27</v>
       </c>
       <c r="C28">
+        <v>4.7553000000000001</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="G28">
+        <v>1.6979</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
+        <v>6.4593999999999996</v>
+      </c>
+      <c r="D29" s="1">
         <v>29</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1.7614000000000001</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -968,41 +1328,77 @@
         <v>29</v>
       </c>
       <c r="C30">
+        <v>5.2908999999999997</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
         <v>30</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="G30">
+        <v>2.6223000000000001</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
+        <v>8.8335000000000008</v>
+      </c>
+      <c r="D31" s="1">
+        <v>34</v>
+      </c>
+      <c r="E31">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="G31">
+        <v>3.0085000000000002</v>
+      </c>
+      <c r="H31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>6.8282999999999996</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>3.2686000000000002</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1010,18 +1406,36 @@
         <v>32</v>
       </c>
       <c r="C33">
+        <v>6.0580999999999996</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
         <v>33</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1.9196</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
+      </c>
+      <c r="C34">
+        <v>5.3578999999999999</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/calibration/file_name_mapping.xlsx
+++ b/calibration/file_name_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haedongkim/Documents/Kv_decomp/calibration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haedo\Documents\Kv_decomp\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF6CD0-EC4F-BB41-9802-1BE0AF0AB99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DD9FC-0C23-4EC9-B75C-78178F30EE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="500" windowWidth="19860" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11820" yWindow="-2220" windowWidth="10170" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,20 +553,20 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -722,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -774,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -800,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -878,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -930,7 +930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -982,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
